--- a/references/Cases_in_progress.xlsx
+++ b/references/Cases_in_progress.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wyman\Documents\work\TeraDrive\TeraDrive\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wyman\Documents\work\TeraDrive\TeraDrive\references\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D862B87-45D2-4CF4-AFB0-3741FD6C40DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32A69D7D-C7E7-49A5-B046-C6F8B1319BC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -992,7 +992,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1052,6 +1052,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1416,8 +1419,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y18"/>
   <sheetViews>
-    <sheetView tabSelected="1" showOutlineSymbols="0" showWhiteSpace="0" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView tabSelected="1" showOutlineSymbols="0" showWhiteSpace="0" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2476,7 +2479,7 @@
       <c r="F16" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="G16" s="14" t="s">
+      <c r="G16" s="21" t="s">
         <v>42</v>
       </c>
       <c r="H16" s="6" t="s">
